--- a/openpyxl/test.xlsx
+++ b/openpyxl/test.xlsx
@@ -131,6 +131,90 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Sheet'!$A$2:$A$98</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -417,7 +501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -449,7 +533,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2">
         <f> AVERAGE(A1:A98)</f>
@@ -462,495 +546,496 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>64</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>87</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>91</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>31</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>106</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>20</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>55</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>59</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>110</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>120</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>118</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>108</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>86</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>54</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>66</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>54</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>59</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>47</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>91</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>115</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>50</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>140</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>110</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>127</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>147</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>56</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>134</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>118</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>128</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>131</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>159</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>131</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>128</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>82</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>154</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>168</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>90</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>154</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>161</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>140</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>155</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>154</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>148</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>164</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>185</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>172</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>135</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>107</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>193</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>103</v>
+        <v>182</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>153</v>
+        <v>179</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>194</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>